--- a/natmiOut/OldD2/LR-pairs_lrc2p/Btc-Erbb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Btc-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,13 +88,13 @@
     <t>Erbb3</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.90480831938983</v>
+        <v>0.06428666666666667</v>
       </c>
       <c r="H2">
-        <v>3.90480831938983</v>
+        <v>0.19286</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01098433848962954</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01638651024683679</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.127706855121299</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N2">
-        <v>0.127706855121299</v>
+        <v>0.481669</v>
       </c>
       <c r="O2">
-        <v>0.01620821741097792</v>
+        <v>0.01905578313479183</v>
       </c>
       <c r="P2">
-        <v>0.01620821741097792</v>
+        <v>0.02595755287029415</v>
       </c>
       <c r="Q2">
-        <v>0.4986707903207601</v>
+        <v>0.01032163148222222</v>
       </c>
       <c r="R2">
-        <v>0.4986707903207601</v>
+        <v>0.09289468334000001</v>
       </c>
       <c r="S2">
-        <v>0.01620821741097792</v>
+        <v>0.0002093151721375273</v>
       </c>
       <c r="T2">
-        <v>0.01620821741097792</v>
+        <v>0.0004253537060918828</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,49 +599,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.90480831938983</v>
+        <v>0.06428666666666667</v>
       </c>
       <c r="H3">
-        <v>3.90480831938983</v>
+        <v>0.19286</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01098433848962954</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01638651024683679</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.553741808692665</v>
+        <v>0.5664446666666666</v>
       </c>
       <c r="N3">
-        <v>0.553741808692665</v>
+        <v>1.699334</v>
       </c>
       <c r="O3">
-        <v>0.07027945067094503</v>
+        <v>0.06722903109309158</v>
       </c>
       <c r="P3">
-        <v>0.07027945067094503</v>
+        <v>0.09157855736883304</v>
       </c>
       <c r="Q3">
-        <v>2.16225562137709</v>
+        <v>0.03641483947111111</v>
       </c>
       <c r="R3">
-        <v>2.16225562137709</v>
+        <v>0.32773355524</v>
       </c>
       <c r="S3">
-        <v>0.07027945067094503</v>
+        <v>0.0007384664338563468</v>
       </c>
       <c r="T3">
-        <v>0.07027945067094503</v>
+        <v>0.001500652968714913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.90480831938983</v>
+        <v>0.06428666666666667</v>
       </c>
       <c r="H4">
-        <v>3.90480831938983</v>
+        <v>0.19286</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01098433848962954</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01638651024683679</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.887055446878028</v>
+        <v>0.8891996666666667</v>
       </c>
       <c r="N4">
-        <v>0.887055446878028</v>
+        <v>2.667599</v>
       </c>
       <c r="O4">
-        <v>0.1125827389996808</v>
+        <v>0.105535519276905</v>
       </c>
       <c r="P4">
-        <v>0.1125827389996808</v>
+        <v>0.1437591833380263</v>
       </c>
       <c r="Q4">
-        <v>3.463781488729387</v>
+        <v>0.05716368257111112</v>
       </c>
       <c r="R4">
-        <v>3.463781488729387</v>
+        <v>0.51447314314</v>
       </c>
       <c r="S4">
-        <v>0.1125827389996808</v>
+        <v>0.001159237866416347</v>
       </c>
       <c r="T4">
-        <v>0.1125827389996808</v>
+        <v>0.002355711330845457</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,433 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.06428666666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.19286</v>
+      </c>
+      <c r="I5">
+        <v>0.01098433848962954</v>
+      </c>
+      <c r="J5">
+        <v>0.01638651024683679</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.088632</v>
+      </c>
+      <c r="N5">
+        <v>0.265896</v>
+      </c>
+      <c r="O5">
+        <v>0.01051937432637061</v>
+      </c>
+      <c r="P5">
+        <v>0.01432936202661939</v>
+      </c>
+      <c r="Q5">
+        <v>0.005697855840000001</v>
+      </c>
+      <c r="R5">
+        <v>0.05128070256</v>
+      </c>
+      <c r="S5">
+        <v>0.0001155483682999735</v>
+      </c>
+      <c r="T5">
+        <v>0.0002348082376798326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.06428666666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.19286</v>
+      </c>
+      <c r="I6">
+        <v>0.01098433848962954</v>
+      </c>
+      <c r="J6">
+        <v>0.01638651024683679</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6.7207635</v>
+      </c>
+      <c r="N6">
+        <v>13.441527</v>
+      </c>
+      <c r="O6">
+        <v>0.797660292168841</v>
+      </c>
+      <c r="P6">
+        <v>0.7243753443962272</v>
+      </c>
+      <c r="Q6">
+        <v>0.4320554828700001</v>
+      </c>
+      <c r="R6">
+        <v>2.59233289722</v>
+      </c>
+      <c r="S6">
+        <v>0.008761770648919342</v>
+      </c>
+      <c r="T6">
+        <v>0.0118699840035047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.90480831938983</v>
-      </c>
-      <c r="H5">
-        <v>3.90480831938983</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>6.3106384182577</v>
-      </c>
-      <c r="N5">
-        <v>6.3106384182577</v>
-      </c>
-      <c r="O5">
-        <v>0.8009295929183963</v>
-      </c>
-      <c r="P5">
-        <v>0.8009295929183963</v>
-      </c>
-      <c r="Q5">
-        <v>24.64183339627375</v>
-      </c>
-      <c r="R5">
-        <v>24.64183339627375</v>
-      </c>
-      <c r="S5">
-        <v>0.8009295929183963</v>
-      </c>
-      <c r="T5">
-        <v>0.8009295929183963</v>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.7882885</v>
+      </c>
+      <c r="H7">
+        <v>11.576577</v>
+      </c>
+      <c r="I7">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J7">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1605563333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.481669</v>
+      </c>
+      <c r="O7">
+        <v>0.01905578313479183</v>
+      </c>
+      <c r="P7">
+        <v>0.02595755287029415</v>
+      </c>
+      <c r="Q7">
+        <v>0.9293463778355</v>
+      </c>
+      <c r="R7">
+        <v>5.576078267013</v>
+      </c>
+      <c r="S7">
+        <v>0.0188464679626543</v>
+      </c>
+      <c r="T7">
+        <v>0.02553219916420227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.7882885</v>
+      </c>
+      <c r="H8">
+        <v>11.576577</v>
+      </c>
+      <c r="I8">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J8">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.5664446666666666</v>
+      </c>
+      <c r="N8">
+        <v>1.699334</v>
+      </c>
+      <c r="O8">
+        <v>0.06722903109309158</v>
+      </c>
+      <c r="P8">
+        <v>0.09157855736883304</v>
+      </c>
+      <c r="Q8">
+        <v>3.278745149953</v>
+      </c>
+      <c r="R8">
+        <v>19.672470899718</v>
+      </c>
+      <c r="S8">
+        <v>0.06649056465923524</v>
+      </c>
+      <c r="T8">
+        <v>0.09007790440011812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.7882885</v>
+      </c>
+      <c r="H9">
+        <v>11.576577</v>
+      </c>
+      <c r="I9">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J9">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8891996666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.667599</v>
+      </c>
+      <c r="O9">
+        <v>0.105535519276905</v>
+      </c>
+      <c r="P9">
+        <v>0.1437591833380263</v>
+      </c>
+      <c r="Q9">
+        <v>5.146944204770501</v>
+      </c>
+      <c r="R9">
+        <v>30.881665228623</v>
+      </c>
+      <c r="S9">
+        <v>0.1043762814104886</v>
+      </c>
+      <c r="T9">
+        <v>0.1414034720071809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.7882885</v>
+      </c>
+      <c r="H10">
+        <v>11.576577</v>
+      </c>
+      <c r="I10">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J10">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.088632</v>
+      </c>
+      <c r="N10">
+        <v>0.265896</v>
+      </c>
+      <c r="O10">
+        <v>0.01051937432637061</v>
+      </c>
+      <c r="P10">
+        <v>0.01432936202661939</v>
+      </c>
+      <c r="Q10">
+        <v>0.5130275863320001</v>
+      </c>
+      <c r="R10">
+        <v>3.078165517992</v>
+      </c>
+      <c r="S10">
+        <v>0.01040382595807064</v>
+      </c>
+      <c r="T10">
+        <v>0.01409455378893956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.7882885</v>
+      </c>
+      <c r="H11">
+        <v>11.576577</v>
+      </c>
+      <c r="I11">
+        <v>0.9890156615103705</v>
+      </c>
+      <c r="J11">
+        <v>0.9836134897531632</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.7207635</v>
+      </c>
+      <c r="N11">
+        <v>13.441527</v>
+      </c>
+      <c r="O11">
+        <v>0.797660292168841</v>
+      </c>
+      <c r="P11">
+        <v>0.7243753443962272</v>
+      </c>
+      <c r="Q11">
+        <v>38.90171807826975</v>
+      </c>
+      <c r="R11">
+        <v>155.606872313079</v>
+      </c>
+      <c r="S11">
+        <v>0.7888985215199217</v>
+      </c>
+      <c r="T11">
+        <v>0.7125053603927225</v>
       </c>
     </row>
   </sheetData>
